--- a/Plotting/0.8.0/Bluedog_DB.xlsx
+++ b/Plotting/0.8.0/Bluedog_DB.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{678EB740-A241-40FB-BA95-B2EA561EE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89059B57-89F4-4F8A-AFEE-33E62F6C1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-8484" yWindow="6108" windowWidth="15228" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bluedog_DB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>debug</t>
   </si>
@@ -196,18 +207,12 @@
     <t>bluedog_Titan2_Adapter</t>
   </si>
   <si>
-    <t>antenna</t>
-  </si>
-  <si>
     <t>electrics</t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>rtg</t>
-  </si>
-  <si>
     <t>thermal</t>
   </si>
   <si>
@@ -227,12 +232,21 @@
   </si>
   <si>
     <t>solar</t>
+  </si>
+  <si>
+    <t>landing</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>reactors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1066,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,10 +1110,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1109,99 +1126,129 @@
 {
 	@TechRequired = "&amp;B2&amp;C2&amp;"
 }"</f>
-        <v>@PART[bluedog_LOantenna]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <v>@PART[bluedog_RAE_TelemetryAntenna]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = comms4
 }</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E52" si="0">"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
+        <f>"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
 {
 	@TechRequired = "&amp;B3&amp;C3&amp;"
 }"</f>
-        <v>@PART[bluedog_LOdish]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <v>@PART[bluedog_Pioneer_HGA_Alternate]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = comms6
 }</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_solarBattery]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = electrics
+        <f>"@PART["&amp;A4&amp;"]:AFTER["&amp;D4&amp;"] //
+{
+	@TechRequired = "&amp;B4&amp;C4&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_HGA]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = comms6
 }</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Explorer_Beacon_SLR]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A5&amp;"]:AFTER["&amp;D5&amp;"] //
+{
+	@TechRequired = "&amp;B5&amp;C5&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_LGA]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = comms6
 }</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Explorer_Star17]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = solids
+        <f>"@PART["&amp;A6&amp;"]:AFTER["&amp;D6&amp;"] //
+{
+	@TechRequired = "&amp;B6&amp;C6&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_ProbeAntenna]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = comms6
 }</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_DipoleAntenna]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <f>"@PART["&amp;A7&amp;"]:AFTER["&amp;D7&amp;"] //
+{
+	@TechRequired = "&amp;B7&amp;C7&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_RelayAntenna]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = comms6
 }</v>
       </c>
     </row>
@@ -1212,569 +1259,824 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f>"@PART["&amp;A8&amp;"]:AFTER["&amp;D8&amp;"] //
+{
+	@TechRequired = "&amp;B8&amp;C8&amp;"
+}"</f>
         <v>@PART[bluedog_RAE_MotorDecoupler]:AFTER[Bluedog_DB] //
 {
-	@TechRequired = construction
+	@TechRequired = construction4
 }</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_ProbeCore]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = probes
+        <f>"@PART["&amp;A9&amp;"]:AFTER["&amp;D9&amp;"] //
+{
+	@TechRequired = "&amp;B9&amp;C9&amp;"
+}"</f>
+        <v>@PART[bluedog_Titan2_Adapter]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction5
 }</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_RadioAntenna]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <f>"@PART["&amp;A10&amp;"]:AFTER["&amp;D10&amp;"] //
+{
+	@TechRequired = "&amp;B10&amp;C10&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_AftAdapter]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_RCS]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = control
+        <f>"@PART["&amp;A11&amp;"]:AFTER["&amp;D11&amp;"] //
+{
+	@TechRequired = "&amp;B11&amp;C11&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_AftAdapterAlternate]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_SolarPaddle]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = solar
+        <f>"@PART["&amp;A12&amp;"]:AFTER["&amp;D12&amp;"] //
+{
+	@TechRequired = "&amp;B12&amp;C12&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_Decoupler]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_TelemetryAntenna]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <f>"@PART["&amp;A13&amp;"]:AFTER["&amp;D13&amp;"] //
+{
+	@TechRequired = "&amp;B13&amp;C13&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_ExperimentBus]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_TrackingSolarPaddle]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = solar
+        <f>"@PART["&amp;A14&amp;"]:AFTER["&amp;D14&amp;"] //
+{
+	@TechRequired = "&amp;B14&amp;C14&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_ExtensionBus]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_RAE_VCPS]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A15&amp;"]:AFTER["&amp;D15&amp;"] //
+{
+	@TechRequired = "&amp;B15&amp;C15&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_ProbeAdapter]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_SmallKlaw]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = isru
+        <f>"@PART["&amp;A16&amp;"]:AFTER["&amp;D16&amp;"] //
+{
+	@TechRequired = "&amp;B16&amp;C16&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_ProbeDecoupler]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_AftAdapter]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A17&amp;"]:AFTER["&amp;D17&amp;"] //
+{
+	@TechRequired = "&amp;B17&amp;C17&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_RCS]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = control4
 }</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_AftAdapterAlternate]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A18&amp;"]:AFTER["&amp;D18&amp;"] //
+{
+	@TechRequired = "&amp;B18&amp;C18&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_StellarReferenceAssembly]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = control6
 }</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_AMD]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A19&amp;"]:AFTER["&amp;D19&amp;"] //
+{
+	@TechRequired = "&amp;B19&amp;C19&amp;"
+}"</f>
+        <v>@PART[bluedog_LOantenna]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_ProbeCore]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = probes
+        <f>"@PART["&amp;A20&amp;"]:AFTER["&amp;D20&amp;"] //
+{
+	@TechRequired = "&amp;B20&amp;C20&amp;"
+}"</f>
+        <v>@PART[bluedog_LOdish]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_CPD]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A21&amp;"]:AFTER["&amp;D21&amp;"] //
+{
+	@TechRequired = "&amp;B21&amp;C21&amp;"
+}"</f>
+        <v>@PART[bluedog_upgrade_logo]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_CRT]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A22&amp;"]:AFTER["&amp;D22&amp;"] //
+{
+	@TechRequired = "&amp;B22&amp;C22&amp;"
+}"</f>
+        <v>@PART[bluedog_solarBattery]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = electrics
 }</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_Decoupler]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A23&amp;"]:AFTER["&amp;D23&amp;"] //
+{
+	@TechRequired = "&amp;B23&amp;C23&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_VCPS]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = hypergol4
 }</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_ExperimentBus]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A24&amp;"]:AFTER["&amp;D24&amp;"] //
+{
+	@TechRequired = "&amp;B24&amp;C24&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_OrbiterPropulsionUnit]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = hypergol6
 }</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_ExtensionBus]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A25&amp;"]:AFTER["&amp;D25&amp;"] //
+{
+	@TechRequired = "&amp;B25&amp;C25&amp;"
+}"</f>
+        <v>@PART[bluedog_SmallKlaw]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = isru9
 }</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_GeigerTube]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A26&amp;"]:AFTER["&amp;D26&amp;"] //
+{
+	@TechRequired = "&amp;B26&amp;C26&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_Probe]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = landing6
 }</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_HGA]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A27&amp;"]:AFTER["&amp;D27&amp;"] //
+{
+	@TechRequired = "&amp;B27&amp;C27&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_ProbeCore]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = probes4
 }</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_HGA_Alternate]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A28&amp;"]:AFTER["&amp;D28&amp;"] //
+{
+	@TechRequired = "&amp;B28&amp;C28&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_ProbeCore]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = probes6
 }</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_InfraredRadiometer]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A29&amp;"]:AFTER["&amp;D29&amp;"] //
+{
+	@TechRequired = "&amp;B29&amp;C29&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_SNAP19]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = reactors6
 }</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_IPP]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A30&amp;"]:AFTER["&amp;D30&amp;"] //
+{
+	@TechRequired = "&amp;B30&amp;C30&amp;"
+}"</f>
+        <v>@PART[bluedog_Explorer_Beacon_SLR]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science3
 }</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_LargeLouver]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A31&amp;"]:AFTER["&amp;D31&amp;"] //
+{
+	@TechRequired = "&amp;B31&amp;C31&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_DipoleAntenna]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science4
 }</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_LGA]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A32&amp;"]:AFTER["&amp;D32&amp;"] //
+{
+	@TechRequired = "&amp;B32&amp;C32&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_RadioAntenna]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science4
 }</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_Magnetometer]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A33&amp;"]:AFTER["&amp;D33&amp;"] //
+{
+	@TechRequired = "&amp;B33&amp;C33&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_AMD]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_MediumLouver]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A34&amp;"]:AFTER["&amp;D34&amp;"] //
+{
+	@TechRequired = "&amp;B34&amp;C34&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_CPD]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_MLS]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A35&amp;"]:AFTER["&amp;D35&amp;"] //
+{
+	@TechRequired = "&amp;B35&amp;C35&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_CRT]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_OrbiterPropulsionUnit]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = hypergol
+        <f>"@PART["&amp;A36&amp;"]:AFTER["&amp;D36&amp;"] //
+{
+	@TechRequired = "&amp;B36&amp;C36&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_GeigerTube]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_OrbiterScanner]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A37&amp;"]:AFTER["&amp;D37&amp;"] //
+{
+	@TechRequired = "&amp;B37&amp;C37&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_InfraredRadiometer]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_PlasmaAnalyzer]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A38&amp;"]:AFTER["&amp;D38&amp;"] //
+{
+	@TechRequired = "&amp;B38&amp;C38&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_IPP]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_Probe]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A39&amp;"]:AFTER["&amp;D39&amp;"] //
+{
+	@TechRequired = "&amp;B39&amp;C39&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_Magnetometer]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_ProbeAdapter]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A40&amp;"]:AFTER["&amp;D40&amp;"] //
+{
+	@TechRequired = "&amp;B40&amp;C40&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_MLS]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_ProbeAntenna]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <f>"@PART["&amp;A41&amp;"]:AFTER["&amp;D41&amp;"] //
+{
+	@TechRequired = "&amp;B41&amp;C41&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_OrbiterScanner]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_ProbeDecoupler]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A42&amp;"]:AFTER["&amp;D42&amp;"] //
+{
+	@TechRequired = "&amp;B42&amp;C42&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_PlasmaAnalyzer]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
@@ -1783,176 +2085,246 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f>"@PART["&amp;A43&amp;"]:AFTER["&amp;D43&amp;"] //
+{
+	@TechRequired = "&amp;B43&amp;C43&amp;"
+}"</f>
         <v>@PART[bluedog_Pioneer_ProbeExperiment]:AFTER[Bluedog_DB] //
 {
-	@TechRequired = science
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_Radiator]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = thermal
+        <f>"@PART["&amp;A44&amp;"]:AFTER["&amp;D44&amp;"] //
+{
+	@TechRequired = "&amp;B44&amp;C44&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_TRD]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_RelayAntenna]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = antenna
+        <f>"@PART["&amp;A45&amp;"]:AFTER["&amp;D45&amp;"] //
+{
+	@TechRequired = "&amp;B45&amp;C45&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_UltravioletPhotometer]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = science6
 }</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_SmallLouver]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = thermal
+        <f>"@PART["&amp;A46&amp;"]:AFTER["&amp;D46&amp;"] //
+{
+	@TechRequired = "&amp;B46&amp;C46&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_SolarPaddle]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = solar4
 }</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_SNAP19]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = rtg
+        <f>"@PART["&amp;A47&amp;"]:AFTER["&amp;D47&amp;"] //
+{
+	@TechRequired = "&amp;B47&amp;C47&amp;"
+}"</f>
+        <v>@PART[bluedog_RAE_TrackingSolarPaddle]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = solar4
 }</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_StellarReferenceAssembly]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A48&amp;"]:AFTER["&amp;D48&amp;"] //
+{
+	@TechRequired = "&amp;B48&amp;C48&amp;"
+}"</f>
+        <v>@PART[bluedog_Explorer_Star17]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = solids3
 }</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_TRD]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = 
+        <f>"@PART["&amp;A49&amp;"]:AFTER["&amp;D49&amp;"] //
+{
+	@TechRequired = "&amp;B49&amp;C49&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_LargeLouver]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = thermal6
 }</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
       </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Pioneer_UltravioletPhotometer]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = science
+        <f>"@PART["&amp;A50&amp;"]:AFTER["&amp;D50&amp;"] //
+{
+	@TechRequired = "&amp;B50&amp;C50&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_MediumLouver]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = thermal6
 }</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_upgrade_logo]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A51&amp;"]:AFTER["&amp;D51&amp;"] //
+{
+	@TechRequired = "&amp;B51&amp;C51&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_Radiator]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = thermal6
 }</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>@PART[bluedog_Titan2_Adapter]:AFTER[Bluedog_DB] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A52&amp;"]:AFTER["&amp;D52&amp;"] //
+{
+	@TechRequired = "&amp;B52&amp;C52&amp;"
+}"</f>
+        <v>@PART[bluedog_Pioneer_SmallLouver]:AFTER[Bluedog_DB] //
+{
+	@TechRequired = thermal6
 }</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E52">
+    <sortCondition ref="B2:B52"/>
+    <sortCondition ref="C2:C52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>